--- a/reports/condensed_results/mock final result.xlsx
+++ b/reports/condensed_results/mock final result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermyers/Desktop/New_Code/perfect_flop_poker/reports/condensed_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DD3EA-E8E3-BD4C-8463-9D80C5E17732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9052495-46AB-DD4F-93F6-5F3E3A5A3165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{90961918-03CF-1B40-A674-944F76EB6DB2}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="2" xr2:uid="{90961918-03CF-1B40-A674-944F76EB6DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Attempt 1" sheetId="1" r:id="rId1"/>
     <sheet name="Attempt 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Attempt 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,22 +33,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
   <si>
     <t>rank1</t>
   </si>
   <si>
     <t>rank2</t>
   </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,10 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6858,7 +6910,7 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" ref="A73:A104" si="2">A66-1</f>
+        <f t="shared" ref="A73:A92" si="2">A66-1</f>
         <v>4</v>
       </c>
       <c r="B73">
@@ -8654,62 +8706,5785 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CBEB16-DFA9-ED44-BF2D-6F94BB28B7BC}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:BK50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AO34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="3" customWidth="1"/>
+    <col min="1" max="42" width="1.6640625" customWidth="1"/>
+    <col min="43" max="62" width="2.1640625" customWidth="1"/>
+    <col min="63" max="67" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H1" s="6">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="I1" s="6">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="J1" s="6">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="K1" s="6">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="L1" s="6">
         <v>4</v>
       </c>
-      <c r="L2">
+      <c r="M1" s="6">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="N1" s="6">
         <v>2</v>
       </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="6">
+        <v>9</v>
+      </c>
+      <c r="V1" s="6">
+        <v>8</v>
+      </c>
+      <c r="W1" s="6">
+        <v>7</v>
+      </c>
+      <c r="X1" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ1" s="6">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="6">
+        <v>6</v>
+      </c>
+      <c r="AL1" s="6">
+        <v>5</v>
+      </c>
+      <c r="AM1" s="6">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="6">
+        <v>2</v>
+      </c>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1</v>
+      </c>
+      <c r="T2" s="6">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+      <c r="W2" s="6">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6">
+        <v>1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>1</v>
+      </c>
+      <c r="V3" s="6">
+        <v>1</v>
+      </c>
+      <c r="W3" s="6">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6">
+        <v>1</v>
+      </c>
+      <c r="X8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="5"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
+        <v>4</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="6">
+        <v>9</v>
+      </c>
+      <c r="P16" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>7</v>
+      </c>
+      <c r="R16" s="6">
+        <v>6</v>
+      </c>
+      <c r="S16" s="6">
+        <v>5</v>
+      </c>
+      <c r="T16" s="6">
+        <v>4</v>
+      </c>
+      <c r="U16" s="6">
+        <v>3</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2</v>
+      </c>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ16" s="6">
+        <v>7</v>
+      </c>
+      <c r="AK16" s="6">
+        <v>6</v>
+      </c>
+      <c r="AL16" s="6">
+        <v>5</v>
+      </c>
+      <c r="AM16" s="6">
+        <v>4</v>
+      </c>
+      <c r="AN16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>1</v>
+      </c>
+      <c r="U17" s="6">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6">
+        <v>1</v>
+      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6">
+        <v>9</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <v>1</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1</v>
+      </c>
+      <c r="T18" s="6">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
+      <c r="V18" s="6">
+        <v>1</v>
+      </c>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6">
+        <v>7</v>
+      </c>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6">
+        <v>8</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>1</v>
+      </c>
+      <c r="V19" s="6">
+        <v>1</v>
+      </c>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6">
+        <v>7</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>1</v>
+      </c>
+      <c r="V20" s="6">
+        <v>1</v>
+      </c>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6">
+        <v>6</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6">
+        <v>1</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1</v>
+      </c>
+      <c r="T21" s="6">
+        <v>1</v>
+      </c>
+      <c r="U21" s="6">
+        <v>1</v>
+      </c>
+      <c r="V21" s="6">
+        <v>1</v>
+      </c>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6">
+        <v>1</v>
+      </c>
+      <c r="T22" s="6">
+        <v>1</v>
+      </c>
+      <c r="U22" s="6">
+        <v>1</v>
+      </c>
+      <c r="V22" s="6">
+        <v>1</v>
+      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6">
+        <v>4</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6">
+        <v>1</v>
+      </c>
+      <c r="V23" s="6">
+        <v>1</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6">
+        <v>3</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6">
+        <v>2</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6">
+        <v>1</v>
+      </c>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6">
+        <v>6</v>
+      </c>
+      <c r="K28" s="6">
+        <v>5</v>
+      </c>
+      <c r="L28" s="6">
+        <v>4</v>
+      </c>
+      <c r="M28" s="6">
+        <v>3</v>
+      </c>
+      <c r="N28" s="6">
+        <v>2</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6">
+        <v>5</v>
+      </c>
+      <c r="R28" s="6">
+        <v>4</v>
+      </c>
+      <c r="S28" s="6">
+        <v>3</v>
+      </c>
+      <c r="T28" s="6">
+        <v>2</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6">
+        <v>4</v>
+      </c>
+      <c r="X28" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>7</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6">
+        <v>6</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6">
+        <v>1</v>
+      </c>
+      <c r="S29" s="6">
+        <v>1</v>
+      </c>
+      <c r="T29" s="6">
+        <v>1</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6">
+        <v>4</v>
+      </c>
+      <c r="W29" s="6">
+        <v>1</v>
+      </c>
+      <c r="X29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+    </row>
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6">
+        <v>1</v>
+      </c>
+      <c r="S30" s="6">
+        <v>1</v>
+      </c>
+      <c r="T30" s="6">
+        <v>1</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6">
+        <v>3</v>
+      </c>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>5</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <v>4</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
+        <v>1</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6">
+        <v>1</v>
+      </c>
+      <c r="T31" s="6">
+        <v>1</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6">
+        <v>2</v>
+      </c>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="BK31" s="3"/>
+    </row>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>4</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
+        <v>3</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6">
+        <v>1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6">
+        <v>1</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="BK32" s="3"/>
+    </row>
+    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>3</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6">
+        <v>2</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="BK33" s="3"/>
+    </row>
+    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>2</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+    </row>
+    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+    </row>
+    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+    </row>
+    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+    </row>
+    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+    </row>
+    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+    </row>
+    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F65E1-8EA3-A045-82C5-7BF7C9ED24AD}">
+  <dimension ref="A1:AO57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="41" width="1.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7">
+        <v>5</v>
+      </c>
+      <c r="L3" s="7">
+        <v>4</v>
+      </c>
+      <c r="M3" s="7">
+        <v>3</v>
+      </c>
+      <c r="N3" s="7">
+        <v>2</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="7">
+        <v>9</v>
+      </c>
+      <c r="V3" s="7">
+        <v>8</v>
+      </c>
+      <c r="W3" s="7">
+        <v>7</v>
+      </c>
+      <c r="X3" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>9</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>8</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>7</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
+      <c r="W5" s="7">
+        <v>1</v>
+      </c>
+      <c r="X5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1</v>
+      </c>
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7">
+        <v>1</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7">
+        <v>1</v>
+      </c>
+      <c r="V8" s="7">
+        <v>1</v>
+      </c>
+      <c r="W8" s="7">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7">
+        <v>1</v>
+      </c>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7">
+        <v>1</v>
+      </c>
+      <c r="X10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+    </row>
+    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="6"/>
+    </row>
+    <row r="17" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="AD17" s="6"/>
+    </row>
+    <row r="18" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7">
+        <v>3</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="7">
+        <v>9</v>
+      </c>
+      <c r="P18" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>7</v>
+      </c>
+      <c r="R18" s="7">
+        <v>6</v>
+      </c>
+      <c r="S18" s="7">
+        <v>5</v>
+      </c>
+      <c r="T18" s="7">
+        <v>4</v>
+      </c>
+      <c r="U18" s="7">
+        <v>3</v>
+      </c>
+      <c r="V18" s="7">
+        <v>2</v>
+      </c>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>7</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>6</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7">
+        <v>1</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1</v>
+      </c>
+      <c r="U19" s="7">
+        <v>1</v>
+      </c>
+      <c r="V19" s="7">
+        <v>1</v>
+      </c>
+      <c r="X19" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7">
+        <v>8</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
+        <v>9</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
+      <c r="R20" s="7">
+        <v>1</v>
+      </c>
+      <c r="S20" s="7">
+        <v>1</v>
+      </c>
+      <c r="T20" s="7">
+        <v>1</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1</v>
+      </c>
+      <c r="V20" s="7">
+        <v>1</v>
+      </c>
+      <c r="X20" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>7</v>
+      </c>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>9</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>8</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>1</v>
+      </c>
+      <c r="R21" s="7">
+        <v>1</v>
+      </c>
+      <c r="S21" s="7">
+        <v>1</v>
+      </c>
+      <c r="T21" s="7">
+        <v>1</v>
+      </c>
+      <c r="U21" s="7">
+        <v>1</v>
+      </c>
+      <c r="V21" s="7">
+        <v>1</v>
+      </c>
+      <c r="X21" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
+      <c r="R22" s="7">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7">
+        <v>1</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1</v>
+      </c>
+      <c r="U22" s="7">
+        <v>1</v>
+      </c>
+      <c r="V22" s="7">
+        <v>1</v>
+      </c>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <v>6</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7">
+        <v>1</v>
+      </c>
+      <c r="T23" s="7">
+        <v>1</v>
+      </c>
+      <c r="U23" s="7">
+        <v>1</v>
+      </c>
+      <c r="V23" s="7">
+        <v>1</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
+        <v>5</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7">
+        <v>1</v>
+      </c>
+      <c r="T24" s="7">
+        <v>1</v>
+      </c>
+      <c r="U24" s="7">
+        <v>1</v>
+      </c>
+      <c r="V24" s="7">
+        <v>1</v>
+      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7">
+        <v>3</v>
+      </c>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7">
+        <v>1</v>
+      </c>
+      <c r="U25" s="7">
+        <v>1</v>
+      </c>
+      <c r="V25" s="7">
+        <v>1</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7">
+        <v>3</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7">
+        <v>1</v>
+      </c>
+      <c r="V26" s="7">
+        <v>1</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="7"/>
+    </row>
+    <row r="27" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7">
+        <v>2</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7">
+        <v>1</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="AG27" s="7"/>
+    </row>
+    <row r="28" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>2</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="AG28" s="7"/>
+    </row>
+    <row r="29" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7">
+        <v>2</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7">
+        <v>6</v>
+      </c>
+      <c r="K30" s="7">
+        <v>5</v>
+      </c>
+      <c r="L30" s="7">
+        <v>4</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7">
+        <v>5</v>
+      </c>
+      <c r="R30" s="7">
+        <v>4</v>
+      </c>
+      <c r="S30" s="7">
+        <v>3</v>
+      </c>
+      <c r="T30" s="7">
+        <v>2</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7">
+        <v>4</v>
+      </c>
+      <c r="X30" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+    </row>
+    <row r="31" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7">
+        <v>6</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>1</v>
+      </c>
+      <c r="R31" s="7">
+        <v>1</v>
+      </c>
+      <c r="S31" s="7">
+        <v>1</v>
+      </c>
+      <c r="T31" s="7">
+        <v>1</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7">
+        <v>4</v>
+      </c>
+      <c r="W31" s="7">
+        <v>1</v>
+      </c>
+      <c r="X31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+    </row>
+    <row r="32" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7">
+        <v>5</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7">
+        <v>1</v>
+      </c>
+      <c r="S32" s="7">
+        <v>1</v>
+      </c>
+      <c r="T32" s="7">
+        <v>1</v>
+      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7">
+        <v>3</v>
+      </c>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+    </row>
+    <row r="33" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7">
+        <v>4</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7">
+        <v>1</v>
+      </c>
+      <c r="T33" s="7">
+        <v>1</v>
+      </c>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7">
+        <v>2</v>
+      </c>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+    </row>
+    <row r="34" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7">
+        <v>3</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7">
+        <v>1</v>
+      </c>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7">
+        <v>2</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7">
+        <v>1</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+    </row>
+    <row r="50" spans="12:41" x14ac:dyDescent="0.2">
+      <c r="L50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+    </row>
+    <row r="51" spans="12:41" x14ac:dyDescent="0.2">
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+    </row>
+    <row r="52" spans="12:41" x14ac:dyDescent="0.2">
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+    </row>
+    <row r="53" spans="12:41" x14ac:dyDescent="0.2">
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+    </row>
+    <row r="54" spans="12:41" x14ac:dyDescent="0.2">
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+    </row>
+    <row r="55" spans="12:41" x14ac:dyDescent="0.2">
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+    </row>
+    <row r="56" spans="12:41" x14ac:dyDescent="0.2">
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+    </row>
+    <row r="57" spans="12:41" x14ac:dyDescent="0.2">
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/condensed_results/mock final result.xlsx
+++ b/reports/condensed_results/mock final result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermyers/Desktop/New_Code/perfect_flop_poker/reports/condensed_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9052495-46AB-DD4F-93F6-5F3E3A5A3165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6306982-A87A-AF4C-BECF-CFB02F851B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="2" xr2:uid="{90961918-03CF-1B40-A674-944F76EB6DB2}"/>
   </bookViews>
@@ -11793,7 +11793,7 @@
   <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
